--- a/Code/TestData/TestData.xlsx
+++ b/Code/TestData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="88">
   <si>
     <t>facter-output</t>
   </si>
@@ -213,6 +213,81 @@
   </si>
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>facter-output11</t>
+  </si>
+  <si>
+    <t>facter-output12</t>
+  </si>
+  <si>
+    <t>facter-output13</t>
+  </si>
+  <si>
+    <t>facter-output14</t>
+  </si>
+  <si>
+    <t>facter-output15</t>
+  </si>
+  <si>
+    <t>facter-output16</t>
+  </si>
+  <si>
+    <t>facter-output17</t>
+  </si>
+  <si>
+    <t>facter-output18</t>
+  </si>
+  <si>
+    <t>facter-output19</t>
+  </si>
+  <si>
+    <t>Sjow</t>
+  </si>
+  <si>
+    <t>6876/6876</t>
+  </si>
+  <si>
+    <t>95/6876</t>
+  </si>
+  <si>
+    <t>Reckful</t>
+  </si>
+  <si>
+    <t>Hotform</t>
+  </si>
+  <si>
+    <t>Gaara</t>
+  </si>
+  <si>
+    <t>Kibler</t>
+  </si>
+  <si>
+    <t>4503/6876</t>
+  </si>
+  <si>
+    <t>Muzzy</t>
+  </si>
+  <si>
+    <t>3663/6876</t>
+  </si>
+  <si>
+    <t>110/6876</t>
+  </si>
+  <si>
+    <t>555/6876</t>
+  </si>
+  <si>
+    <t>(/6876)</t>
+  </si>
+  <si>
+    <t>Artosis</t>
+  </si>
+  <si>
+    <t>Hyped</t>
+  </si>
+  <si>
+    <t>Firebat</t>
   </si>
 </sst>
 </file>
@@ -248,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +640,9 @@
       <c r="E1" t="s">
         <v>61</v>
       </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
       <c r="K1" t="s">
         <v>62</v>
       </c>
@@ -1051,252 +1130,319 @@
         <v>42</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>450</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>99</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>450</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>912</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>915</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>144</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>145</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>334</v>
+      </c>
+      <c r="I18">
+        <v>5560</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>504</v>
+      </c>
+      <c r="O18">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>876</v>
+      </c>
+      <c r="I19">
+        <v>4328</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>878</v>
+      </c>
+      <c r="O19">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -1305,41 +1451,79 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
       <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
@@ -1347,15 +1531,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
         <v>55</v>
@@ -1364,38 +1551,41 @@
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>54</v>
       </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
@@ -1404,24 +1594,24 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
         <v>54</v>
@@ -1429,12 +1619,18 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
         <v>55</v>
       </c>
       <c r="G36" t="s">
@@ -1446,10 +1642,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>55</v>
@@ -1458,83 +1657,242 @@
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>24</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D51" t="s">
         <v>30</v>
       </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Code/TestData/TestData.xlsx
+++ b/Code/TestData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="73">
   <si>
     <t>facter-output</t>
   </si>
@@ -242,52 +242,7 @@
     <t>facter-output19</t>
   </si>
   <si>
-    <t>Sjow</t>
-  </si>
-  <si>
-    <t>6876/6876</t>
-  </si>
-  <si>
-    <t>95/6876</t>
-  </si>
-  <si>
-    <t>Reckful</t>
-  </si>
-  <si>
-    <t>Hotform</t>
-  </si>
-  <si>
-    <t>Gaara</t>
-  </si>
-  <si>
-    <t>Kibler</t>
-  </si>
-  <si>
-    <t>4503/6876</t>
-  </si>
-  <si>
-    <t>Muzzy</t>
-  </si>
-  <si>
-    <t>3663/6876</t>
-  </si>
-  <si>
-    <t>110/6876</t>
-  </si>
-  <si>
-    <t>555/6876</t>
-  </si>
-  <si>
     <t>(/6876)</t>
-  </si>
-  <si>
-    <t>Artosis</t>
-  </si>
-  <si>
-    <t>Hyped</t>
-  </si>
-  <si>
-    <t>Firebat</t>
   </si>
 </sst>
 </file>
@@ -608,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +596,7 @@
         <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>62</v>
@@ -1134,279 +1089,47 @@
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>450</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14">
-        <v>450</v>
-      </c>
-      <c r="O14" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15">
-        <v>912</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15">
-        <v>12</v>
-      </c>
-      <c r="K15">
-        <v>30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15">
-        <v>915</v>
-      </c>
-      <c r="O15" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16">
-        <v>13</v>
-      </c>
-      <c r="K16">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>144</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17">
-        <v>14</v>
-      </c>
-      <c r="K17">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17">
-        <v>145</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="I17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>334</v>
-      </c>
-      <c r="I18">
-        <v>5560</v>
-      </c>
-      <c r="J18">
-        <v>15</v>
-      </c>
-      <c r="K18">
-        <v>88</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18">
-        <v>504</v>
-      </c>
-      <c r="O18">
-        <v>6666</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>876</v>
-      </c>
-      <c r="I19">
-        <v>4328</v>
-      </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="K19">
-        <v>83</v>
-      </c>
-      <c r="L19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19">
-        <v>878</v>
-      </c>
-      <c r="O19">
-        <v>5777</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20">
-        <v>17</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21">
-        <v>18</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
